--- a/Homework 1/Wyatt Homework 1.xlsx
+++ b/Homework 1/Wyatt Homework 1.xlsx
@@ -1152,7 +1152,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="3000" baseline="0"/>
-                  <a:t>CPU Cycles</a:t>
+                  <a:t>log10(CPU Cycles)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4506,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4F172-522B-4490-B6E8-1BE292BE57DE}">
   <dimension ref="A3:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
